--- a/medicine/Handicap/Braille_chérokî/Braille_chérokî.xlsx
+++ b/medicine/Handicap/Braille_chérokî/Braille_chérokî.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Braille_ch%C3%A9rok%C3%AE</t>
+          <t>Braille_chérokî</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le braille chérokî est un alphabet braille adapté à l'écriture de la langue chérokî, pour laquelle un syllabaire existe depuis le XIXe siècle. Il a été développé par la Commonwealth Braille and Talking Book Cooperative en 2014[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le braille chérokî est un alphabet braille adapté à l'écriture de la langue chérokî, pour laquelle un syllabaire existe depuis le XIXe siècle. Il a été développé par la Commonwealth Braille and Talking Book Cooperative en 2014.
 Il est construit sur la base de l'UEB (en) (Unified English Braille code). La ponctuation et les symboles spéciaux suivent donc l’usage de l'UEB.
 En braille chérokî, on se contente de coder les syllabes sous forme de deux cellules braille : une première pour la consonne et une seconde pour la voyelle.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Braille_ch%C3%A9rok%C3%AE</t>
+          <t>Braille_chérokî</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Braille_ch%C3%A9rok%C3%AE</t>
+          <t>Braille_chérokî</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,6 +554,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,7 +563,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Braille_ch%C3%A9rok%C3%AE</t>
+          <t>Braille_chérokî</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -566,6 +582,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -573,7 +591,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Braille_ch%C3%A9rok%C3%AE</t>
+          <t>Braille_chérokî</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -591,7 +609,9 @@
           <t>Diacritiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Quatre modificateurs sont utilisés pour noter des syllabes chérokîes avec diacritiques.
 Ces modificateurs se placent avant les syllabes sur lesquels ils portent.
@@ -611,7 +631,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Braille_ch%C3%A9rok%C3%AE</t>
+          <t>Braille_chérokî</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -629,7 +649,9 @@
           <t>Ponctuation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La ponctuation et d’autres signes spéciaux, ©, ™, etc. suit l’usage de l'Unified English Braille (en).
 </t>
@@ -642,7 +664,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Braille_ch%C3%A9rok%C3%AE</t>
+          <t>Braille_chérokî</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -660,7 +682,9 @@
           <t>Nombres</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nombres suivent l’usage de l'Unified English Braille (en). Les lettres a à j sont précédées du modificateur numérique ⠼.
 </t>
